--- a/experiments/ongoing exp/adult-DSS-exp4/dissection2.xlsx
+++ b/experiments/ongoing exp/adult-DSS-exp4/dissection2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\ongoing exp\adult-DSS-exp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8094264-A416-4F11-B9AF-747EDF557FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801B868B-74B2-48C0-95F4-82F065BE0CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{B5BC487F-FEDB-4094-A250-83D11D875085}"/>
   </bookViews>
@@ -193,13 +193,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,276 +543,454 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.3522000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.5599999999999996E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0921000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.1011</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1913</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.7299999999999998E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2216</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9.2399999999999996E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0893999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.2299999999999998E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.12709999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0831</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0348999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.4599999999999995E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.254</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1065</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0722</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.3306</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.6600000000000005E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1783999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.16600000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.9400000000000002E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.2139</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0528</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.1758</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1067</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="1">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.3264</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.11990000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.2887</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1134</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.17730000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="1">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1347</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8.3099999999999993E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.2181</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.7900000000000006E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4915</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1153</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1062</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -820,6 +998,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
